--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DFEA135-48A8-8747-90E2-2B3CEBF04086}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F67D0C-DE71-1E45-8AA1-6BBCEAA1C203}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="15000" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="2700" yWindow="1000" windowWidth="10000" windowHeight="15000" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="D1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -425,7 +425,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="4:6">
@@ -436,8 +436,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f>1-F2</f>
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="4:6">
@@ -448,8 +447,8 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f>D2-D3*F2+D4+F3+D5*F2*F3</f>
-        <v>6.3526249999999989</v>
+        <f>D2-D3*F2+D4*F3+D5*F2*F3</f>
+        <v>5.5945909999999994</v>
       </c>
     </row>
     <row r="5" spans="4:6">

--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CCA568-906F-6440-B5A7-3A662627CBC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658F24F-1663-4C45-8034-BB8609251EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="2" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="1" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
@@ -573,23 +573,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -692,6 +680,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4451,210 +4451,210 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="9"/>
-    <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="3" width="10.7109375" style="5"/>
+    <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
-      <c r="C1" s="11"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="3:12">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>5.8686999999999996</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>0.745</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:12">
-      <c r="C3" s="4"/>
-      <c r="D3" s="9">
+      <c r="C3" s="37"/>
+      <c r="D3" s="5">
         <v>0.41760000000000003</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="4"/>
-      <c r="D4" s="9">
+      <c r="C4" s="37"/>
+      <c r="D4" s="5">
         <v>0.18959999999999999</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <f>$D$2-$D$3*F2+$D$4*F3+$D$5*F2*F3</f>
         <v>5.7565004999999996</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <f>D2-D3*I2+D4*I3+D5*I2*I3</f>
         <v>5.6531999999999991</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <f>$D$2-$D$3*L2+$D$4*L3+$D$5*L2*L3</f>
         <v>5.5945909999999994</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="21" thickBot="1">
-      <c r="C5" s="6"/>
-      <c r="D5" s="10">
+      <c r="C5" s="38"/>
+      <c r="D5" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <f>F4-I4</f>
         <v>0.10330050000000046</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <f>I4-I4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <f>L4-I4</f>
         <v>-5.8608999999999689E-2</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="21" thickBot="1">
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <f>-1*F5/I4</f>
         <v>-1.8272925068987561E-2</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <f>I5/I4*-1</f>
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <f>L5/I4*-1</f>
         <v>1.0367402533078557E-2</v>
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>5.6532499999999999</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>5.4511700000000003</v>
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>6.0583</v>
       </c>
     </row>
     <row r="12" spans="3:12">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>5.8687500000000004</v>
       </c>
     </row>
     <row r="13" spans="3:12">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <f>$E$9*F2*F3+$E$10*F2*(1-F3)+$E$11*(1-F2)*F3+$E$12*(1-F2)*(1-F3)</f>
         <v>5.7565377500000006</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <f>$E$9*I2*I3+$E$10*I2*(1-I3)+$E$11*(1-I2)*I3+$E$12*(1-I2)*(1-I3)</f>
         <v>5.6532499999999999</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="5">
         <f>$E$9*L2*L3+$E$10*L2*(1-L3)+$E$11*(1-L2)*L3+$E$12*(1-L2)*(1-L3)</f>
         <v>5.5946467999999996</v>
       </c>
@@ -4672,133 +4672,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA66D7-AD96-A249-B847-BE3A4407F2FA}">
   <dimension ref="C1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="9"/>
-    <col min="4" max="4" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="9"/>
-    <col min="7" max="7" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="3" width="10.7109375" style="5"/>
+    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5"/>
+    <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="21" thickBot="1">
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>0.745</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <f>1-0.485</f>
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="3" spans="3:13">
-      <c r="C3" s="4"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <f>0.324+0.7*G2+0.4*G2*G2</f>
         <v>1.06751</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <f>0.324+0.7*I2+0.4*I2*I2</f>
         <v>1.4239999999999999</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <f>1.42+1.087*K2+0.438*K2*K2</f>
         <v>2.1503450000000002</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="5">
         <f>1.351+0.643*M2+0.786*M2*M2</f>
         <v>1.89061185</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="4"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <f>1240/G3</f>
         <v>1161.5816245281076</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="9">
+      <c r="H4" s="11"/>
+      <c r="I4" s="5">
         <f>1240/I3</f>
         <v>870.78651685393265</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <f>1240/K3</f>
         <v>576.65165357186868</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <f>1240/M3</f>
         <v>655.8723304310189</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="21" thickBot="1">
-      <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="7"/>
-      <c r="H5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="E6" s="13"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="K7" s="15"/>
+      <c r="K7" s="11">
+        <v>2.1503450000000002</v>
+      </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="K8" s="15"/>
+      <c r="K8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4813,407 +4815,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
   <dimension ref="B1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="18"/>
-    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="18"/>
-    <col min="8" max="8" width="17.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="18"/>
-    <col min="13" max="13" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="10.7109375" style="14"/>
+    <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="14"/>
+    <col min="8" max="8" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="14"/>
+    <col min="13" max="13" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:20">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="27">
         <v>3.65</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="27">
         <v>0.871</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="27">
         <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="27">
         <v>36.1</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <f>-2.45</f>
         <v>-2.4500000000000002</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>3.391</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="27">
         <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>28.91</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>7.54</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="27">
         <v>3.391</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="27">
         <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="27">
         <v>28.91</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <v>7.54</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="10" spans="2:20" ht="17" thickBot="1"/>
     <row r="11" spans="2:20" ht="17" thickBot="1">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <f>C16/C13</f>
         <v>1.2037300724108257</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <f>6.62607004E-34</f>
         <v>6.6260700399999999E-34</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="30">
         <v>0</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="14">
         <f>1-0.485</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="14">
         <f>1-0.255</f>
         <v>0.745</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>1.0300000000000001E-6</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="32">
         <f>$D$2+$E$2*K12+$F$2*K12*K12</f>
         <v>3.65</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="14">
         <f>$D$2+$E$2*N12+$F$2*N12*N12</f>
         <v>4.1831975000000003</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="14">
         <f>D5+E5*Q12+F5*Q12*Q12</f>
         <v>3.8186688750000002</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="14">
         <f>D7+E7*T12+F7*T12*T12</f>
         <v>4.1116198749999997</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="23">
         <v>299792458</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="31" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="32">
         <f>$D$3+$E$3*K12</f>
         <v>36.1</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="14">
         <f>$D$3+$E$3*N12</f>
         <v>34.752499999999998</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="14">
         <f>D6+E6*Q12</f>
         <v>32.793100000000003</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="14">
         <f>D8+E8*T12</f>
         <v>34.527299999999997</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <f>C14/C13</f>
         <v>291060638834951.44</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="31" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="32">
         <v>1.4239999999999999</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="14">
         <v>2.15</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="14">
         <v>1.89061185</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="14">
         <v>1.06751</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <f>C12*C14/C17</f>
         <v>1.2398419745831506E-6</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="32">
         <f>PI()*$K14/(2*$K13^3*($K13^2-$K15^2))</f>
         <v>0.10324591147962126</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="32">
         <f>PI()*N14/(2*N13^3*(N13^2-N15^2))</f>
         <v>5.7913288003838569E-2</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="32">
         <f>PI()*Q14/(2*Q13^3*(Q13^2-Q15^2))</f>
         <v>8.4035942225448204E-2</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="32">
         <f>PI()*T14/(2*T13^3*(T13^2-T15^2))</f>
         <v>4.9491030807251223E-2</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="17" thickBot="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <v>1.6021766200000001E-19</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="31" t="s">
+      <c r="I17" s="31"/>
+      <c r="J17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="33">
         <f>$K14/$K13+$K14/$K13^3*$C$11^2+$K16/PI()*$C$11^4*LN((2*$K13^2-$K15^2-$C$11^2)/($K15^2-$C$11^2))</f>
         <v>11.220674486869809</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="33">
         <f>$N$14/$N$13+$N$14/$N$13^3*$C$11^2+$N$16/PI()*$C$11^4*LN((2*$N$13^2-$N$15^2-$C$11^2)/($N$15^2-$C$11^2))</f>
         <v>9.0810612295503947</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="17" thickBot="1">
-      <c r="I18" s="38"/>
-      <c r="J18" s="39" t="s">
+      <c r="I18" s="34"/>
+      <c r="J18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <f>SQRT(K17+1)</f>
         <v>3.495808130728832</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="36">
         <f>SQRT(N17+1)</f>
         <v>3.1750686968238018</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5230,10 +5232,10 @@
       <c r="K20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5241,39 +5243,39 @@
       <c r="H21">
         <v>800</v>
       </c>
-      <c r="I21" s="17">
-        <f>$C$16/H21*10^9</f>
+      <c r="I21" s="13">
+        <f t="shared" ref="I21:I61" si="0">$C$16/H21*10^9</f>
         <v>1.5498024682289382</v>
       </c>
-      <c r="J21" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I21^2+$K$16/PI()*I21^4*LN((2*$K$13^2-$K$15^2-I21^2)/($K$15^2-I21^2))</f>
+      <c r="J21" s="15" t="e">
+        <f t="shared" ref="J21:J61" si="1">$K$14/$K$13+$K$14/$K$13^3*I21^2+$K$16/PI()*I21^4*LN((2*$K$13^2-$K$15^2-I21^2)/($K$15^2-I21^2))</f>
         <v>#NUM!</v>
       </c>
       <c r="K21" t="e">
         <f>SQRT(J21+1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="33">
         <f>N$14/N$13+N$14/N$13^3*$I21^2+N$16/PI()*$I21^4*LN((2*N$13^2-N$15^2-$I21^2)/(N$15^2-$I21^2))</f>
         <v>9.717360074132241</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="15">
         <f>SQRT(M21+1)</f>
         <v>3.2737379360804435</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="33">
         <f>Q$14/Q$13+Q$14/Q$13^3*$I21^2+Q$16/PI()*$I21^4*LN((2*Q$13^2-Q$15^2-$I21^2)/(Q$15^2-$I21^2))</f>
         <v>10.462624805344729</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="14">
         <f>SQRT(P21+1)</f>
         <v>3.3856498350161273</v>
       </c>
-      <c r="S21" s="37" t="e">
+      <c r="S21" s="33" t="e">
         <f>T$14/T$13+T$14/T$13^3*$I21^2+T$16/PI()*$I21^4*LN((2*T$13^2-T$15^2-$I21^2)/(T$15^2-$I21^2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T21" s="18" t="e">
+      <c r="T21" s="14" t="e">
         <f>SQRT(S21+1)</f>
         <v>#NUM!</v>
       </c>
@@ -5282,40 +5284,40 @@
       <c r="H22">
         <v>810</v>
       </c>
-      <c r="I22" s="17">
-        <f>$C$16/H22*10^9</f>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
         <v>1.5306691044236427</v>
       </c>
-      <c r="J22" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I22^2+$K$16/PI()*I22^4*LN((2*$K$13^2-$K$15^2-I22^2)/($K$15^2-I22^2))</f>
+      <c r="J22" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K22" t="e">
-        <f t="shared" ref="K22:K61" si="0">SQRT(J22+1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M22" s="37">
-        <f t="shared" ref="M22:M61" si="1">N$14/N$13+N$14/N$13^3*$I22^2+N$16/PI()*$I22^4*LN((2*N$13^2-N$15^2-$I22^2)/(N$15^2-$I22^2))</f>
+        <f t="shared" ref="K22:K61" si="2">SQRT(J22+1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" ref="M22:M61" si="3">N$14/N$13+N$14/N$13^3*$I22^2+N$16/PI()*$I22^4*LN((2*N$13^2-N$15^2-$I22^2)/(N$15^2-$I22^2))</f>
         <v>9.6738797687547837</v>
       </c>
-      <c r="N22" s="19">
-        <f t="shared" ref="N22:N61" si="2">SQRT(M22+1)</f>
+      <c r="N22" s="15">
+        <f t="shared" ref="N22:N61" si="4">SQRT(M22+1)</f>
         <v>3.2670904133119403</v>
       </c>
-      <c r="P22" s="37">
-        <f t="shared" ref="P22:P61" si="3">Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
+      <c r="P22" s="33">
+        <f t="shared" ref="P22:P61" si="5">Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
         <v>10.398759713849758</v>
       </c>
-      <c r="Q22" s="18">
-        <f t="shared" ref="Q22:Q61" si="4">SQRT(P22+1)</f>
+      <c r="Q22" s="14">
+        <f t="shared" ref="Q22:Q61" si="6">SQRT(P22+1)</f>
         <v>3.3762049277035535</v>
       </c>
-      <c r="S22" s="37" t="e">
-        <f t="shared" ref="S22:S61" si="5">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T22" s="18" t="e">
-        <f t="shared" ref="T22:T61" si="6">SQRT(S22+1)</f>
+      <c r="S22" s="33" t="e">
+        <f t="shared" ref="S22:S61" si="7">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" s="14" t="e">
+        <f t="shared" ref="T22:T61" si="8">SQRT(S22+1)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5323,40 +5325,40 @@
       <c r="H23">
         <v>820</v>
       </c>
-      <c r="I23" s="17">
-        <f>$C$16/H23*10^9</f>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
         <v>1.5120024080282326</v>
       </c>
-      <c r="J23" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I23^2+$K$16/PI()*I23^4*LN((2*$K$13^2-$K$15^2-I23^2)/($K$15^2-I23^2))</f>
+      <c r="J23" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K23" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M23" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="3"/>
         <v>9.6325773635392604</v>
       </c>
-      <c r="N23" s="19">
-        <f t="shared" si="2"/>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
         <v>3.2607633099535547</v>
       </c>
-      <c r="P23" s="37">
-        <f t="shared" si="3"/>
+      <c r="P23" s="33">
+        <f t="shared" si="5"/>
         <v>10.338686744405525</v>
       </c>
-      <c r="Q23" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q23" s="14">
+        <f t="shared" si="6"/>
         <v>3.3672966522724908</v>
       </c>
-      <c r="S23" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S23" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5364,40 +5366,40 @@
       <c r="H24">
         <v>830</v>
       </c>
-      <c r="I24" s="17">
-        <f>$C$16/H24*10^9</f>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
         <v>1.4937855115459644</v>
       </c>
-      <c r="J24" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I24^2+$K$16/PI()*I24^4*LN((2*$K$13^2-$K$15^2-I24^2)/($K$15^2-I24^2))</f>
+      <c r="J24" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K24" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M24" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="3"/>
         <v>9.5932946966048505</v>
       </c>
-      <c r="N24" s="19">
-        <f t="shared" si="2"/>
+      <c r="N24" s="15">
+        <f t="shared" si="4"/>
         <v>3.2547341975351611</v>
       </c>
-      <c r="P24" s="37">
-        <f t="shared" si="3"/>
+      <c r="P24" s="33">
+        <f t="shared" si="5"/>
         <v>10.282051124215755</v>
       </c>
-      <c r="Q24" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q24" s="14">
+        <f t="shared" si="6"/>
         <v>3.3588764675432401</v>
       </c>
-      <c r="S24" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T24" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S24" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5405,40 +5407,40 @@
       <c r="H25">
         <v>840</v>
       </c>
-      <c r="I25" s="17">
-        <f>$C$16/H25*10^9</f>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
         <v>1.4760023506942268</v>
       </c>
-      <c r="J25" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I25^2+$K$16/PI()*I25^4*LN((2*$K$13^2-$K$15^2-I25^2)/($K$15^2-I25^2))</f>
+      <c r="J25" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K25" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M25" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="3"/>
         <v>9.5558891985677654</v>
       </c>
-      <c r="N25" s="19">
-        <f t="shared" si="2"/>
+      <c r="N25" s="15">
+        <f t="shared" si="4"/>
         <v>3.2489827944400944</v>
       </c>
-      <c r="P25" s="37">
-        <f t="shared" si="3"/>
+      <c r="P25" s="33">
+        <f t="shared" si="5"/>
         <v>10.228546467592144</v>
       </c>
-      <c r="Q25" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q25" s="14">
+        <f t="shared" si="6"/>
         <v>3.350902336325567</v>
       </c>
-      <c r="S25" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T25" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S25" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5446,40 +5448,40 @@
       <c r="H26">
         <v>850</v>
       </c>
-      <c r="I26" s="17">
-        <f>$C$16/H26*10^9</f>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
         <v>1.4586376171566477</v>
       </c>
-      <c r="J26" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I26^2+$K$16/PI()*I26^4*LN((2*$K$13^2-$K$15^2-I26^2)/($K$15^2-I26^2))</f>
+      <c r="J26" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K26" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M26" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="3"/>
         <v>9.5202319057868561</v>
       </c>
-      <c r="N26" s="19">
-        <f t="shared" si="2"/>
+      <c r="N26" s="15">
+        <f t="shared" si="4"/>
         <v>3.243490697656902</v>
       </c>
-      <c r="P26" s="37">
-        <f t="shared" si="3"/>
+      <c r="P26" s="33">
+        <f t="shared" si="5"/>
         <v>10.177905898900903</v>
       </c>
-      <c r="Q26" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q26" s="14">
+        <f t="shared" si="6"/>
         <v>3.3433375388825017</v>
       </c>
-      <c r="S26" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T26" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S26" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5487,40 +5489,40 @@
       <c r="H27">
         <v>860</v>
       </c>
-      <c r="I27" s="17">
-        <f>$C$16/H27*10^9</f>
+      <c r="I27" s="13">
+        <f t="shared" si="0"/>
         <v>1.4416767146315705</v>
       </c>
-      <c r="J27" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I27^2+$K$16/PI()*I27^4*LN((2*$K$13^2-$K$15^2-I27^2)/($K$15^2-I27^2))</f>
+      <c r="J27" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K27" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M27" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="3"/>
         <v>9.4862057872349475</v>
       </c>
-      <c r="N27" s="19">
-        <f t="shared" si="2"/>
+      <c r="N27" s="15">
+        <f t="shared" si="4"/>
         <v>3.2382411564358433</v>
       </c>
-      <c r="P27" s="37">
-        <f t="shared" si="3"/>
+      <c r="P27" s="33">
+        <f t="shared" si="5"/>
         <v>10.129895210961985</v>
       </c>
-      <c r="Q27" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q27" s="14">
+        <f t="shared" si="6"/>
         <v>3.336149758473379</v>
       </c>
-      <c r="S27" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T27" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S27" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5528,40 +5530,40 @@
       <c r="H28">
         <v>870</v>
       </c>
-      <c r="I28" s="17">
-        <f>$C$16/H28*10^9</f>
+      <c r="I28" s="13">
+        <f t="shared" si="0"/>
         <v>1.4251057179116673</v>
       </c>
-      <c r="J28" s="19" t="e">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I28^2+$K$16/PI()*I28^4*LN((2*$K$13^2-$K$15^2-I28^2)/($K$15^2-I28^2))</f>
+      <c r="J28" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="K28" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M28" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="3"/>
         <v>9.4537043259029172</v>
       </c>
-      <c r="N28" s="19">
-        <f t="shared" si="2"/>
+      <c r="N28" s="15">
+        <f t="shared" si="4"/>
         <v>3.2332188799867723</v>
       </c>
-      <c r="P28" s="37">
-        <f t="shared" si="3"/>
+      <c r="P28" s="33">
+        <f t="shared" si="5"/>
         <v>10.08430750751344</v>
       </c>
-      <c r="Q28" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q28" s="14">
+        <f t="shared" si="6"/>
         <v>3.3293103651527352</v>
       </c>
-      <c r="S28" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T28" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S28" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5569,40 +5571,40 @@
       <c r="H29">
         <v>880</v>
       </c>
-      <c r="I29" s="17">
-        <f>$C$16/H29*10^9</f>
+      <c r="I29" s="13">
+        <f t="shared" si="0"/>
         <v>1.4089113347535802</v>
       </c>
-      <c r="J29" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I29^2+$K$16/PI()*I29^4*LN((2*$K$13^2-$K$15^2-I29^2)/($K$15^2-I29^2))</f>
+      <c r="J29" s="15">
+        <f t="shared" si="1"/>
         <v>12.176252109866908</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6299107578378438</v>
       </c>
-      <c r="M29" s="37">
-        <f t="shared" si="1"/>
+      <c r="M29" s="33">
+        <f t="shared" si="3"/>
         <v>9.4226303085204979</v>
       </c>
-      <c r="N29" s="19">
-        <f t="shared" si="2"/>
+      <c r="N29" s="15">
+        <f t="shared" si="4"/>
         <v>3.2284098730676218</v>
       </c>
-      <c r="P29" s="37">
-        <f t="shared" si="3"/>
+      <c r="P29" s="33">
+        <f t="shared" si="5"/>
         <v>10.040958948044389</v>
       </c>
-      <c r="Q29" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q29" s="14">
+        <f t="shared" si="6"/>
         <v>3.3227938467567304</v>
       </c>
-      <c r="S29" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T29" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S29" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T29" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5610,40 +5612,40 @@
       <c r="H30">
         <v>890</v>
       </c>
-      <c r="I30" s="17">
-        <f>$C$16/H30*10^9</f>
+      <c r="I30" s="13">
+        <f t="shared" si="0"/>
         <v>1.3930808703181468</v>
       </c>
-      <c r="J30" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I30^2+$K$16/PI()*I30^4*LN((2*$K$13^2-$K$15^2-I30^2)/($K$15^2-I30^2))</f>
+      <c r="J30" s="15">
+        <f t="shared" si="1"/>
         <v>12.01956702384007</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6082637131784132</v>
       </c>
-      <c r="M30" s="37">
-        <f t="shared" si="1"/>
+      <c r="M30" s="33">
+        <f t="shared" si="3"/>
         <v>9.3928947870910626</v>
       </c>
-      <c r="N30" s="19">
-        <f t="shared" si="2"/>
+      <c r="N30" s="15">
+        <f t="shared" si="4"/>
         <v>3.2238012946040988</v>
       </c>
-      <c r="P30" s="37">
-        <f t="shared" si="3"/>
+      <c r="P30" s="33">
+        <f t="shared" si="5"/>
         <v>9.9996853252198825</v>
       </c>
-      <c r="Q30" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q30" s="14">
+        <f t="shared" si="6"/>
         <v>3.3165773510080965</v>
       </c>
-      <c r="S30" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T30" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S30" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T30" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5651,40 +5653,40 @@
       <c r="H31">
         <v>900</v>
       </c>
-      <c r="I31" s="17">
-        <f>$C$16/H31*10^9</f>
+      <c r="I31" s="13">
+        <f t="shared" si="0"/>
         <v>1.3776021939812786</v>
       </c>
-      <c r="J31" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I31^2+$K$16/PI()*I31^4*LN((2*$K$13^2-$K$15^2-I31^2)/($K$15^2-I31^2))</f>
+      <c r="J31" s="15">
+        <f t="shared" si="1"/>
         <v>11.910472742535179</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5931146297516281</v>
       </c>
-      <c r="M31" s="37">
-        <f t="shared" si="1"/>
+      <c r="M31" s="33">
+        <f t="shared" si="3"/>
         <v>9.3644161831466892</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="2"/>
+      <c r="N31" s="15">
+        <f t="shared" si="4"/>
         <v>3.2193813354659757</v>
       </c>
-      <c r="P31" s="37">
-        <f t="shared" si="3"/>
+      <c r="P31" s="33">
+        <f t="shared" si="5"/>
         <v>9.9603392806288547</v>
       </c>
-      <c r="Q31" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q31" s="14">
+        <f t="shared" si="6"/>
         <v>3.3106403127837454</v>
       </c>
-      <c r="S31" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T31" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S31" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5692,40 +5694,40 @@
       <c r="H32">
         <v>910</v>
       </c>
-      <c r="I32" s="17">
-        <f>$C$16/H32*10^9</f>
+      <c r="I32" s="13">
+        <f t="shared" si="0"/>
         <v>1.3624637083331326</v>
       </c>
-      <c r="J32" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I32^2+$K$16/PI()*I32^4*LN((2*$K$13^2-$K$15^2-I32^2)/($K$15^2-I32^2))</f>
+      <c r="J32" s="15">
+        <f t="shared" si="1"/>
         <v>11.822095434343087</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5807953633715357</v>
       </c>
-      <c r="M32" s="37">
-        <f t="shared" si="1"/>
+      <c r="M32" s="33">
+        <f t="shared" si="3"/>
         <v>9.3371195113389902</v>
       </c>
-      <c r="N32" s="19">
-        <f t="shared" si="2"/>
+      <c r="N32" s="15">
+        <f t="shared" si="4"/>
         <v>3.2151391122841</v>
       </c>
-      <c r="P32" s="37">
-        <f t="shared" si="3"/>
+      <c r="P32" s="33">
+        <f t="shared" si="5"/>
         <v>9.9227880165795614</v>
       </c>
-      <c r="Q32" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q32" s="14">
+        <f t="shared" si="6"/>
         <v>3.3049641475482847</v>
       </c>
-      <c r="S32" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T32" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S32" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T32" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5733,40 +5735,40 @@
       <c r="H33">
         <v>920</v>
       </c>
-      <c r="I33" s="17">
-        <f>$C$16/H33*10^9</f>
+      <c r="I33" s="13">
+        <f t="shared" si="0"/>
         <v>1.3476543201990767</v>
       </c>
-      <c r="J33" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I33^2+$K$16/PI()*I33^4*LN((2*$K$13^2-$K$15^2-I33^2)/($K$15^2-I33^2))</f>
+      <c r="J33" s="15">
+        <f t="shared" si="1"/>
         <v>11.746012493836545</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5701558080616795</v>
       </c>
-      <c r="M33" s="37">
-        <f t="shared" si="1"/>
+      <c r="M33" s="33">
+        <f t="shared" si="3"/>
         <v>9.3109357034231213</v>
       </c>
-      <c r="N33" s="19">
-        <f t="shared" si="2"/>
+      <c r="N33" s="15">
+        <f t="shared" si="4"/>
         <v>3.2110645747825006</v>
       </c>
-      <c r="P33" s="37">
-        <f t="shared" si="3"/>
+      <c r="P33" s="33">
+        <f t="shared" si="5"/>
         <v>9.8869113981365047</v>
       </c>
-      <c r="Q33" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q33" s="14">
+        <f t="shared" si="6"/>
         <v>3.2995319968347792</v>
       </c>
-      <c r="S33" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T33" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S33" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T33" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5774,40 +5776,40 @@
       <c r="H34">
         <v>930</v>
       </c>
-      <c r="I34" s="17">
-        <f>$C$16/H34*10^9</f>
+      <c r="I34" s="13">
+        <f t="shared" si="0"/>
         <v>1.3331634135302695</v>
       </c>
-      <c r="J34" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I34^2+$K$16/PI()*I34^4*LN((2*$K$13^2-$K$15^2-I34^2)/($K$15^2-I34^2))</f>
+      <c r="J34" s="15">
+        <f t="shared" si="1"/>
         <v>11.67838159749688</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5606715093500103</v>
       </c>
-      <c r="M34" s="37">
-        <f t="shared" si="1"/>
+      <c r="M34" s="33">
+        <f t="shared" si="3"/>
         <v>9.2858010171789083</v>
       </c>
-      <c r="N34" s="19">
-        <f t="shared" si="2"/>
+      <c r="N34" s="15">
+        <f t="shared" si="4"/>
         <v>3.2071484245633082</v>
       </c>
-      <c r="P34" s="37">
-        <f t="shared" si="3"/>
+      <c r="P34" s="33">
+        <f t="shared" si="5"/>
         <v>9.8526003656081098</v>
       </c>
-      <c r="Q34" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q34" s="14">
+        <f t="shared" si="6"/>
         <v>3.2943285151314385</v>
       </c>
-      <c r="S34" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T34" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S34" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T34" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5815,40 +5817,40 @@
       <c r="H35">
         <v>940</v>
       </c>
-      <c r="I35" s="17">
-        <f>$C$16/H35*10^9</f>
+      <c r="I35" s="13">
+        <f t="shared" si="0"/>
         <v>1.3189808240246284</v>
       </c>
-      <c r="J35" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I35^2+$K$16/PI()*I35^4*LN((2*$K$13^2-$K$15^2-I35^2)/($K$15^2-I35^2))</f>
+      <c r="J35" s="15">
+        <f t="shared" si="1"/>
         <v>11.617082475248834</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.552053275958686</v>
       </c>
-      <c r="M35" s="37">
-        <f t="shared" si="1"/>
+      <c r="M35" s="33">
+        <f t="shared" si="3"/>
         <v>9.2616565175723302</v>
       </c>
-      <c r="N35" s="19">
-        <f t="shared" si="2"/>
+      <c r="N35" s="15">
+        <f t="shared" si="4"/>
         <v>3.20338204364892</v>
       </c>
-      <c r="P35" s="37">
-        <f t="shared" si="3"/>
+      <c r="P35" s="33">
+        <f t="shared" si="5"/>
         <v>9.8197555965400678</v>
       </c>
-      <c r="Q35" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q35" s="14">
+        <f t="shared" si="6"/>
         <v>3.2893396900502792</v>
       </c>
-      <c r="S35" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T35" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S35" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T35" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5856,40 +5858,40 @@
       <c r="H36">
         <v>950</v>
       </c>
-      <c r="I36" s="17">
-        <f>$C$16/H36*10^9</f>
+      <c r="I36" s="13">
+        <f t="shared" si="0"/>
         <v>1.3050968153506848</v>
       </c>
-      <c r="J36" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I36^2+$K$16/PI()*I36^4*LN((2*$K$13^2-$K$15^2-I36^2)/($K$15^2-I36^2))</f>
+      <c r="J36" s="15">
+        <f t="shared" si="1"/>
         <v>11.560798041593088</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5441216177768347</v>
       </c>
-      <c r="M36" s="37">
-        <f t="shared" si="1"/>
+      <c r="M36" s="33">
+        <f t="shared" si="3"/>
         <v>9.2384476196616028</v>
       </c>
-      <c r="N36" s="19">
-        <f t="shared" si="2"/>
+      <c r="N36" s="15">
+        <f t="shared" si="4"/>
         <v>3.199757431378448</v>
       </c>
-      <c r="P36" s="37">
-        <f t="shared" si="3"/>
+      <c r="P36" s="33">
+        <f t="shared" si="5"/>
         <v>9.7882863701149745</v>
       </c>
-      <c r="Q36" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q36" s="14">
+        <f t="shared" si="6"/>
         <v>3.2845526895020232</v>
       </c>
-      <c r="S36" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T36" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S36" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T36" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5897,40 +5899,40 @@
       <c r="H37">
         <v>960</v>
       </c>
-      <c r="I37" s="17">
-        <f>$C$16/H37*10^9</f>
+      <c r="I37" s="13">
+        <f t="shared" si="0"/>
         <v>1.2915020568574487</v>
       </c>
-      <c r="J37" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I37^2+$K$16/PI()*I37^4*LN((2*$K$13^2-$K$15^2-I37^2)/($K$15^2-I37^2))</f>
+      <c r="J37" s="15">
+        <f t="shared" si="1"/>
         <v>11.508640706743543</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.536755675296718</v>
       </c>
-      <c r="M37" s="37">
-        <f t="shared" si="1"/>
+      <c r="M37" s="33">
+        <f t="shared" si="3"/>
         <v>9.2161236845200332</v>
       </c>
-      <c r="N37" s="19">
-        <f t="shared" si="2"/>
+      <c r="N37" s="15">
+        <f t="shared" si="4"/>
         <v>3.1962671484905689</v>
       </c>
-      <c r="P37" s="37">
-        <f t="shared" si="3"/>
+      <c r="P37" s="33">
+        <f t="shared" si="5"/>
         <v>9.7581095971647276</v>
       </c>
-      <c r="Q37" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q37" s="14">
+        <f t="shared" si="6"/>
         <v>3.2799557309763689</v>
       </c>
-      <c r="S37" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T37" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S37" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T37" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5938,40 +5940,40 @@
       <c r="H38">
         <v>970</v>
       </c>
-      <c r="I38" s="17">
-        <f>$C$16/H38*10^9</f>
+      <c r="I38" s="13">
+        <f t="shared" si="0"/>
         <v>1.2781876026630419</v>
       </c>
-      <c r="J38" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I38^2+$K$16/PI()*I38^4*LN((2*$K$13^2-$K$15^2-I38^2)/($K$15^2-I38^2))</f>
+      <c r="J38" s="15">
+        <f t="shared" si="1"/>
         <v>11.459975635106392</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5298690677001594</v>
       </c>
-      <c r="M38" s="37">
-        <f t="shared" si="1"/>
+      <c r="M38" s="33">
+        <f t="shared" si="3"/>
         <v>9.1946376608781222</v>
       </c>
-      <c r="N38" s="19">
-        <f t="shared" si="2"/>
+      <c r="N38" s="15">
+        <f t="shared" si="4"/>
         <v>3.1929042674151886</v>
       </c>
-      <c r="P38" s="37">
-        <f t="shared" si="3"/>
+      <c r="P38" s="33">
+        <f t="shared" si="5"/>
         <v>9.7291489867653222</v>
       </c>
-      <c r="Q38" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q38" s="14">
+        <f t="shared" si="6"/>
         <v>3.2755379690617725</v>
       </c>
-      <c r="S38" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T38" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S38" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T38" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5979,40 +5981,40 @@
       <c r="H39">
         <v>980</v>
       </c>
-      <c r="I39" s="17">
-        <f>$C$16/H39*10^9</f>
+      <c r="I39" s="13">
+        <f t="shared" si="0"/>
         <v>1.2651448720236231</v>
       </c>
-      <c r="J39" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I39^2+$K$16/PI()*I39^4*LN((2*$K$13^2-$K$15^2-I39^2)/($K$15^2-I39^2))</f>
+      <c r="J39" s="15">
+        <f t="shared" si="1"/>
         <v>11.414327734088708</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5233971865358451</v>
       </c>
-      <c r="M39" s="37">
-        <f t="shared" si="1"/>
+      <c r="M39" s="33">
+        <f t="shared" si="3"/>
         <v>9.1739457663513377</v>
       </c>
-      <c r="N39" s="19">
-        <f t="shared" si="2"/>
+      <c r="N39" s="15">
+        <f t="shared" si="4"/>
         <v>3.1896623279512424</v>
       </c>
-      <c r="P39" s="37">
-        <f t="shared" si="3"/>
+      <c r="P39" s="33">
+        <f t="shared" si="5"/>
         <v>9.7013343262971112</v>
       </c>
-      <c r="Q39" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q39" s="14">
+        <f t="shared" si="6"/>
         <v>3.2712893981268474</v>
       </c>
-      <c r="S39" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T39" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S39" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T39" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6020,40 +6022,40 @@
       <c r="H40">
         <v>990</v>
       </c>
-      <c r="I40" s="17">
-        <f>$C$16/H40*10^9</f>
+      <c r="I40" s="13">
+        <f t="shared" si="0"/>
         <v>1.2523656308920714</v>
       </c>
-      <c r="J40" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I40^2+$K$16/PI()*I40^4*LN((2*$K$13^2-$K$15^2-I40^2)/($K$15^2-I40^2))</f>
+      <c r="J40" s="15">
+        <f t="shared" si="1"/>
         <v>11.371328622737646</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5172899543167673</v>
       </c>
-      <c r="M40" s="37">
-        <f t="shared" si="1"/>
+      <c r="M40" s="33">
+        <f t="shared" si="3"/>
         <v>9.1540072030734123</v>
       </c>
-      <c r="N40" s="19">
-        <f t="shared" si="2"/>
+      <c r="N40" s="15">
+        <f t="shared" si="4"/>
         <v>3.1865352976349426</v>
       </c>
-      <c r="P40" s="37">
-        <f t="shared" si="3"/>
+      <c r="P40" s="33">
+        <f t="shared" si="5"/>
         <v>9.6746008564046591</v>
       </c>
-      <c r="Q40" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q40" s="14">
+        <f t="shared" si="6"/>
         <v>3.2672007676916119</v>
       </c>
-      <c r="S40" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T40" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S40" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T40" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6061,40 +6063,40 @@
       <c r="H41">
         <v>1000</v>
       </c>
-      <c r="I41" s="17">
-        <f>$C$16/H41*10^9</f>
+      <c r="I41" s="13">
+        <f t="shared" si="0"/>
         <v>1.2398419745831506</v>
       </c>
-      <c r="J41" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I41^2+$K$16/PI()*I41^4*LN((2*$K$13^2-$K$15^2-I41^2)/($K$15^2-I41^2))</f>
+      <c r="J41" s="15">
+        <f t="shared" si="1"/>
         <v>11.33068443982571</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5115074312644863</v>
       </c>
-      <c r="M41" s="37">
-        <f t="shared" si="1"/>
+      <c r="M41" s="33">
+        <f t="shared" si="3"/>
         <v>9.1347839033400025</v>
       </c>
-      <c r="N41" s="19">
-        <f t="shared" si="2"/>
+      <c r="N41" s="15">
+        <f t="shared" si="4"/>
         <v>3.1835175362073951</v>
       </c>
-      <c r="P41" s="37">
-        <f t="shared" si="3"/>
+      <c r="P41" s="33">
+        <f t="shared" si="5"/>
         <v>9.6488887258266534</v>
       </c>
-      <c r="Q41" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q41" s="14">
+        <f t="shared" si="6"/>
         <v>3.2632635084875776</v>
       </c>
-      <c r="S41" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T41" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S41" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T41" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6102,40 +6104,40 @@
       <c r="H42">
         <v>1010</v>
       </c>
-      <c r="I42" s="17">
-        <f>$C$16/H42*10^9</f>
+      <c r="I42" s="13">
+        <f t="shared" si="0"/>
         <v>1.2275663114684658</v>
       </c>
-      <c r="J42" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I42^2+$K$16/PI()*I42^4*LN((2*$K$13^2-$K$15^2-I42^2)/($K$15^2-I42^2))</f>
+      <c r="J42" s="15">
+        <f t="shared" si="1"/>
         <v>11.292155289603134</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5060170121668168</v>
       </c>
-      <c r="M42" s="37">
-        <f t="shared" si="1"/>
+      <c r="M42" s="33">
+        <f t="shared" si="3"/>
         <v>9.1162403015174878</v>
       </c>
-      <c r="N42" s="19">
-        <f t="shared" si="2"/>
+      <c r="N42" s="15">
+        <f t="shared" si="4"/>
         <v>3.1806037636771869</v>
       </c>
-      <c r="P42" s="37">
-        <f t="shared" si="3"/>
+      <c r="P42" s="33">
+        <f t="shared" si="5"/>
         <v>9.6241425138388372</v>
       </c>
-      <c r="Q42" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q42" s="14">
+        <f t="shared" si="6"/>
         <v>3.2594696675745944</v>
       </c>
-      <c r="S42" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T42" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S42" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T42" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6143,40 +6145,40 @@
       <c r="H43">
         <v>1020</v>
       </c>
-      <c r="I43" s="17">
-        <f>$C$16/H43*10^9</f>
+      <c r="I43" s="13">
+        <f t="shared" si="0"/>
         <v>1.2155313476305398</v>
       </c>
-      <c r="J43" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I43^2+$K$16/PI()*I43^4*LN((2*$K$13^2-$K$15^2-I43^2)/($K$15^2-I43^2))</f>
+      <c r="J43" s="15">
+        <f t="shared" si="1"/>
         <v>11.255541559412322</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5007915618345975</v>
       </c>
-      <c r="M43" s="37">
-        <f t="shared" si="1"/>
+      <c r="M43" s="33">
+        <f t="shared" si="3"/>
         <v>9.0983431290125729</v>
       </c>
-      <c r="N43" s="19">
-        <f t="shared" si="2"/>
+      <c r="N43" s="15">
+        <f t="shared" si="4"/>
         <v>3.1777890315457653</v>
       </c>
-      <c r="P43" s="37">
-        <f t="shared" si="3"/>
+      <c r="P43" s="33">
+        <f t="shared" si="5"/>
         <v>9.6003108102449897</v>
       </c>
-      <c r="Q43" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q43" s="14">
+        <f t="shared" si="6"/>
         <v>3.2558118511739877</v>
       </c>
-      <c r="S43" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S43" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T43" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6184,40 +6186,40 @@
       <c r="H44">
         <v>1030</v>
       </c>
-      <c r="I44" s="17">
-        <f>$C$16/H44*10^9</f>
+      <c r="I44" s="13">
+        <f t="shared" si="0"/>
         <v>1.2037300724108257</v>
       </c>
-      <c r="J44" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I44^2+$K$16/PI()*I44^4*LN((2*$K$13^2-$K$15^2-I44^2)/($K$15^2-I44^2))</f>
+      <c r="J44" s="15">
+        <f t="shared" si="1"/>
         <v>11.220674486869809</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.495808130728832</v>
       </c>
-      <c r="M44" s="37">
-        <f t="shared" si="1"/>
+      <c r="M44" s="33">
+        <f t="shared" si="3"/>
         <v>9.0810612295503947</v>
       </c>
-      <c r="N44" s="19">
-        <f t="shared" si="2"/>
+      <c r="N44" s="15">
+        <f t="shared" si="4"/>
         <v>3.1750686968238018</v>
       </c>
-      <c r="P44" s="37">
-        <f t="shared" si="3"/>
+      <c r="P44" s="33">
+        <f t="shared" si="5"/>
         <v>9.5773458445974562</v>
       </c>
-      <c r="Q44" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q44" s="14">
+        <f t="shared" si="6"/>
         <v>3.2522831741097602</v>
       </c>
-      <c r="S44" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T44" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S44" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T44" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6225,40 +6227,40 @@
       <c r="H45">
         <v>1040</v>
       </c>
-      <c r="I45" s="17">
-        <f>$C$16/H45*10^9</f>
+      <c r="I45" s="13">
+        <f t="shared" si="0"/>
         <v>1.192155744791491</v>
       </c>
-      <c r="J45" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I45^2+$K$16/PI()*I45^4*LN((2*$K$13^2-$K$15^2-I45^2)/($K$15^2-I45^2))</f>
+      <c r="J45" s="15">
+        <f t="shared" si="1"/>
         <v>11.187409459368419</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4910470434195555</v>
       </c>
-      <c r="M45" s="37">
-        <f t="shared" si="1"/>
+      <c r="M45" s="33">
+        <f t="shared" si="3"/>
         <v>9.0643653923886465</v>
       </c>
-      <c r="N45" s="19">
-        <f t="shared" si="2"/>
+      <c r="N45" s="15">
+        <f t="shared" si="4"/>
         <v>3.1724383985175577</v>
       </c>
-      <c r="P45" s="37">
-        <f t="shared" si="3"/>
+      <c r="P45" s="33">
+        <f t="shared" si="5"/>
         <v>9.5552031577307801</v>
       </c>
-      <c r="Q45" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q45" s="14">
+        <f t="shared" si="6"/>
         <v>3.2488772149360741</v>
       </c>
-      <c r="S45" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T45" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S45" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T45" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6266,40 +6268,40 @@
       <c r="H46">
         <v>1050</v>
       </c>
-      <c r="I46" s="17">
-        <f>$C$16/H46*10^9</f>
+      <c r="I46" s="13">
+        <f t="shared" si="0"/>
         <v>1.1808018805553815</v>
       </c>
-      <c r="J46" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I46^2+$K$16/PI()*I46^4*LN((2*$K$13^2-$K$15^2-I46^2)/($K$15^2-I46^2))</f>
+      <c r="J46" s="15">
+        <f t="shared" si="1"/>
         <v>11.155621129919133</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4864912347400407</v>
       </c>
-      <c r="M46" s="37">
-        <f t="shared" si="1"/>
+      <c r="M46" s="33">
+        <f t="shared" si="3"/>
         <v>9.0482282014153732</v>
       </c>
-      <c r="N46" s="19">
-        <f t="shared" si="2"/>
+      <c r="N46" s="15">
+        <f t="shared" si="4"/>
         <v>3.1698940363071086</v>
       </c>
-      <c r="P46" s="37">
-        <f t="shared" si="3"/>
+      <c r="P46" s="33">
+        <f t="shared" si="5"/>
         <v>9.5338413098249557</v>
       </c>
-      <c r="Q46" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q46" s="14">
+        <f t="shared" si="6"/>
         <v>3.2455879759798463</v>
       </c>
-      <c r="S46" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T46" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S46" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T46" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6307,40 +6309,40 @@
       <c r="H47">
         <v>1060</v>
       </c>
-      <c r="I47" s="17">
-        <f>$C$16/H47*10^9</f>
+      <c r="I47" s="13">
+        <f t="shared" si="0"/>
         <v>1.1696622401727836</v>
       </c>
-      <c r="J47" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I47^2+$K$16/PI()*I47^4*LN((2*$K$13^2-$K$15^2-I47^2)/($K$15^2-I47^2))</f>
+      <c r="J47" s="15">
+        <f t="shared" si="1"/>
         <v>11.125199775816917</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4821257553134002</v>
       </c>
-      <c r="M47" s="37">
-        <f t="shared" si="1"/>
+      <c r="M47" s="33">
+        <f t="shared" si="3"/>
         <v>9.032623898349323</v>
       </c>
-      <c r="N47" s="19">
-        <f t="shared" si="2"/>
+      <c r="N47" s="15">
+        <f t="shared" si="4"/>
         <v>3.1674317511746519</v>
       </c>
-      <c r="P47" s="37">
-        <f t="shared" si="3"/>
+      <c r="P47" s="33">
+        <f t="shared" si="5"/>
         <v>9.5132216201366315</v>
       </c>
-      <c r="Q47" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q47" s="14">
+        <f t="shared" si="6"/>
         <v>3.242409847649836</v>
       </c>
-      <c r="S47" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T47" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S47" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T47" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6348,40 +6350,40 @@
       <c r="H48">
         <v>1070</v>
       </c>
-      <c r="I48" s="17">
-        <f>$C$16/H48*10^9</f>
+      <c r="I48" s="13">
+        <f t="shared" si="0"/>
         <v>1.1587308173674304</v>
       </c>
-      <c r="J48" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I48^2+$K$16/PI()*I48^4*LN((2*$K$13^2-$K$15^2-I48^2)/($K$15^2-I48^2))</f>
+      <c r="J48" s="15">
+        <f t="shared" si="1"/>
         <v>11.096048529494434</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4779373958561179</v>
       </c>
-      <c r="M48" s="37">
-        <f t="shared" si="1"/>
+      <c r="M48" s="33">
+        <f t="shared" si="3"/>
         <v>9.0175282584922645</v>
       </c>
-      <c r="N48" s="19">
-        <f t="shared" si="2"/>
+      <c r="N48" s="15">
+        <f t="shared" si="4"/>
         <v>3.1650479077720552</v>
       </c>
-      <c r="P48" s="37">
-        <f t="shared" si="3"/>
+      <c r="P48" s="33">
+        <f t="shared" si="5"/>
         <v>9.4933079342909039</v>
       </c>
-      <c r="Q48" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q48" s="14">
+        <f t="shared" si="6"/>
         <v>3.2393375764638832</v>
       </c>
-      <c r="S48" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T48" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S48" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T48" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6389,40 +6391,40 @@
       <c r="H49">
         <v>1080</v>
       </c>
-      <c r="I49" s="17">
-        <f>$C$16/H49*10^9</f>
+      <c r="I49" s="13">
+        <f t="shared" si="0"/>
         <v>1.148001828317732</v>
       </c>
-      <c r="J49" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I49^2+$K$16/PI()*I49^4*LN((2*$K$13^2-$K$15^2-I49^2)/($K$15^2-I49^2))</f>
+      <c r="J49" s="15">
+        <f t="shared" si="1"/>
         <v>11.068081235297031</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4739143966564621</v>
       </c>
-      <c r="M49" s="37">
-        <f t="shared" si="1"/>
+      <c r="M49" s="33">
+        <f t="shared" si="3"/>
         <v>9.0029184776793176</v>
       </c>
-      <c r="N49" s="19">
-        <f t="shared" si="2"/>
+      <c r="N49" s="15">
+        <f t="shared" si="4"/>
         <v>3.1627390783432197</v>
       </c>
-      <c r="P49" s="37">
-        <f t="shared" si="3"/>
+      <c r="P49" s="33">
+        <f t="shared" si="5"/>
         <v>9.4740664156473553</v>
       </c>
-      <c r="Q49" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q49" s="14">
+        <f t="shared" si="6"/>
         <v>3.2363662363285393</v>
       </c>
-      <c r="S49" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T49" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S49" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T49" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6430,40 +6432,40 @@
       <c r="H50">
         <v>1090</v>
       </c>
-      <c r="I50" s="17">
-        <f>$C$16/H50*10^9</f>
+      <c r="I50" s="13">
+        <f t="shared" si="0"/>
         <v>1.1374697014524318</v>
       </c>
-      <c r="J50" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I50^2+$K$16/PI()*I50^4*LN((2*$K$13^2-$K$15^2-I50^2)/($K$15^2-I50^2))</f>
+      <c r="J50" s="15">
+        <f t="shared" si="1"/>
         <v>11.041220764478872</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4700462193577297</v>
       </c>
-      <c r="M50" s="37">
-        <f t="shared" si="1"/>
+      <c r="M50" s="33">
+        <f t="shared" si="3"/>
         <v>8.9887730692417218</v>
       </c>
-      <c r="N50" s="19">
-        <f t="shared" si="2"/>
+      <c r="N50" s="15">
+        <f t="shared" si="4"/>
         <v>3.1605020280394887</v>
       </c>
-      <c r="P50" s="37">
-        <f t="shared" si="3"/>
+      <c r="P50" s="33">
+        <f t="shared" si="5"/>
         <v>9.4554653577679009</v>
       </c>
-      <c r="Q50" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q50" s="14">
+        <f t="shared" si="6"/>
         <v>3.233491202673652</v>
       </c>
-      <c r="S50" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T50" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S50" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T50" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6471,40 +6473,40 @@
       <c r="H51">
         <v>1100</v>
       </c>
-      <c r="I51" s="17">
-        <f>$C$16/H51*10^9</f>
+      <c r="I51" s="13">
+        <f t="shared" si="0"/>
         <v>1.1271290678028643</v>
       </c>
-      <c r="J51" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I51^2+$K$16/PI()*I51^4*LN((2*$K$13^2-$K$15^2-I51^2)/($K$15^2-I51^2))</f>
+      <c r="J51" s="15">
+        <f t="shared" si="1"/>
         <v>11.015397671691341</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4663233651365162</v>
       </c>
-      <c r="M51" s="37">
-        <f t="shared" si="1"/>
+      <c r="M51" s="33">
+        <f t="shared" si="3"/>
         <v>8.9750717699411684</v>
       </c>
-      <c r="N51" s="19">
-        <f t="shared" si="2"/>
+      <c r="N51" s="15">
+        <f t="shared" si="4"/>
         <v>3.1583337014858275</v>
       </c>
-      <c r="P51" s="37">
-        <f t="shared" si="3"/>
+      <c r="P51" s="33">
+        <f t="shared" si="5"/>
         <v>9.4374750154416258</v>
       </c>
-      <c r="Q51" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q51" s="14">
+        <f t="shared" si="6"/>
         <v>3.2307081291013624</v>
       </c>
-      <c r="S51" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T51" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S51" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T51" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6512,40 +6514,40 @@
       <c r="H52">
         <v>1110</v>
       </c>
-      <c r="I52" s="17">
-        <f>$C$16/H52*10^9</f>
+      <c r="I52" s="13">
+        <f t="shared" si="0"/>
         <v>1.1169747518767124</v>
       </c>
-      <c r="J52" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I52^2+$K$16/PI()*I52^4*LN((2*$K$13^2-$K$15^2-I52^2)/($K$15^2-I52^2))</f>
+      <c r="J52" s="15">
+        <f t="shared" si="1"/>
         <v>10.990549110099046</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4627372279887259</v>
       </c>
-      <c r="M52" s="37">
-        <f t="shared" si="1"/>
+      <c r="M52" s="33">
+        <f t="shared" si="3"/>
         <v>8.9617954539593274</v>
       </c>
-      <c r="N52" s="19">
-        <f t="shared" si="2"/>
+      <c r="N52" s="15">
+        <f t="shared" si="4"/>
         <v>3.1562312104722823</v>
       </c>
-      <c r="P52" s="37">
-        <f t="shared" si="3"/>
+      <c r="P52" s="33">
+        <f t="shared" si="5"/>
         <v>9.420067452079131</v>
       </c>
-      <c r="Q52" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q52" s="14">
+        <f t="shared" si="6"/>
         <v>3.228012926256512</v>
       </c>
-      <c r="S52" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T52" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S52" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T52" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6553,40 +6555,40 @@
       <c r="H53">
         <v>1120</v>
       </c>
-      <c r="I53" s="17">
-        <f>$C$16/H53*10^9</f>
+      <c r="I53" s="13">
+        <f t="shared" si="0"/>
         <v>1.1070017630206703</v>
       </c>
-      <c r="J53" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I53^2+$K$16/PI()*I53^4*LN((2*$K$13^2-$K$15^2-I53^2)/($K$15^2-I53^2))</f>
+      <c r="J53" s="15">
+        <f t="shared" si="1"/>
         <v>10.966617945243438</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4592799749721674</v>
       </c>
-      <c r="M53" s="37">
-        <f t="shared" si="1"/>
+      <c r="M53" s="33">
+        <f t="shared" si="3"/>
         <v>8.9489260541341071</v>
       </c>
-      <c r="N53" s="19">
-        <f t="shared" si="2"/>
+      <c r="N53" s="15">
+        <f t="shared" si="4"/>
         <v>3.1541918226598247</v>
       </c>
-      <c r="P53" s="37">
-        <f t="shared" si="3"/>
+      <c r="P53" s="33">
+        <f t="shared" si="5"/>
         <v>9.4032164015891038</v>
       </c>
-      <c r="Q53" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q53" s="14">
+        <f t="shared" si="6"/>
         <v>3.225401742665416</v>
       </c>
-      <c r="S53" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T53" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S53" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T53" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6594,40 +6596,40 @@
       <c r="H54">
         <v>1130</v>
       </c>
-      <c r="I54" s="17">
-        <f>$C$16/H54*10^9</f>
+      <c r="I54" s="13">
+        <f t="shared" si="0"/>
         <v>1.0972052872417262</v>
       </c>
-      <c r="J54" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I54^2+$K$16/PI()*I54^4*LN((2*$K$13^2-$K$15^2-I54^2)/($K$15^2-I54^2))</f>
+      <c r="J54" s="15">
+        <f t="shared" si="1"/>
         <v>10.943552023679022</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4559444474237462</v>
       </c>
-      <c r="M54" s="37">
-        <f t="shared" si="1"/>
+      <c r="M54" s="33">
+        <f t="shared" si="3"/>
         <v>8.9364464897273361</v>
       </c>
-      <c r="N54" s="19">
-        <f t="shared" si="2"/>
+      <c r="N54" s="15">
+        <f t="shared" si="4"/>
         <v>3.1522129512022716</v>
       </c>
-      <c r="P54" s="37">
-        <f t="shared" si="3"/>
+      <c r="P54" s="33">
+        <f t="shared" si="5"/>
         <v>9.3868971431030523</v>
       </c>
-      <c r="Q54" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q54" s="14">
+        <f t="shared" si="6"/>
         <v>3.222870947323683</v>
       </c>
-      <c r="S54" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T54" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S54" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T54" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6635,40 +6637,40 @@
       <c r="H55">
         <v>1140</v>
       </c>
-      <c r="I55" s="17">
-        <f>$C$16/H55*10^9</f>
+      <c r="I55" s="13">
+        <f t="shared" si="0"/>
         <v>1.087580679458904</v>
       </c>
-      <c r="J55" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I55^2+$K$16/PI()*I55^4*LN((2*$K$13^2-$K$15^2-I55^2)/($K$15^2-I55^2))</f>
+      <c r="J55" s="15">
+        <f t="shared" si="1"/>
         <v>10.921303563608099</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4527240786961384</v>
       </c>
-      <c r="M55" s="37">
-        <f t="shared" si="1"/>
+      <c r="M55" s="33">
+        <f t="shared" si="3"/>
         <v>8.9243406000899448</v>
       </c>
-      <c r="N55" s="19">
-        <f t="shared" si="2"/>
+      <c r="N55" s="15">
+        <f t="shared" si="4"/>
         <v>3.1502921451970045</v>
       </c>
-      <c r="P55" s="37">
-        <f t="shared" si="3"/>
+      <c r="P55" s="33">
+        <f t="shared" si="5"/>
         <v>9.3710863871284804</v>
       </c>
-      <c r="Q55" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q55" s="14">
+        <f t="shared" si="6"/>
         <v>3.2204171138423172</v>
       </c>
-      <c r="S55" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T55" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S55" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T55" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6676,40 +6678,40 @@
       <c r="H56">
         <v>1150</v>
       </c>
-      <c r="I56" s="17">
-        <f>$C$16/H56*10^9</f>
+      <c r="I56" s="13">
+        <f t="shared" si="0"/>
         <v>1.0781234561592614</v>
       </c>
-      <c r="J56" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I56^2+$K$16/PI()*I56^4*LN((2*$K$13^2-$K$15^2-I56^2)/($K$15^2-I56^2))</f>
+      <c r="J56" s="15">
+        <f t="shared" si="1"/>
         <v>10.899828642755951</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4496128250509432</v>
       </c>
-      <c r="M56" s="37">
-        <f t="shared" si="1"/>
+      <c r="M56" s="33">
+        <f t="shared" si="3"/>
         <v>8.9125930836612905</v>
       </c>
-      <c r="N56" s="19">
-        <f t="shared" si="2"/>
+      <c r="N56" s="15">
+        <f t="shared" si="4"/>
         <v>3.1484270808867865</v>
       </c>
-      <c r="P56" s="37">
-        <f t="shared" si="3"/>
+      <c r="P56" s="33">
+        <f t="shared" si="5"/>
         <v>9.3557621718932324</v>
       </c>
-      <c r="Q56" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q56" s="14">
+        <f t="shared" si="6"/>
         <v>3.2180370059856727</v>
       </c>
-      <c r="S56" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T56" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S56" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T56" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6717,40 +6719,40 @@
       <c r="H57">
         <v>1160</v>
       </c>
-      <c r="I57" s="17">
-        <f>$C$16/H57*10^9</f>
+      <c r="I57" s="13">
+        <f t="shared" si="0"/>
         <v>1.0688292884337505</v>
       </c>
-      <c r="J57" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I57^2+$K$16/PI()*I57^4*LN((2*$K$13^2-$K$15^2-I57^2)/($K$15^2-I57^2))</f>
+      <c r="J57" s="15">
+        <f t="shared" si="1"/>
         <v>10.879086764549953</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4466051071380304</v>
       </c>
-      <c r="M57" s="37">
-        <f t="shared" si="1"/>
+      <c r="M57" s="33">
+        <f t="shared" si="3"/>
         <v>8.9011894418011615</v>
       </c>
-      <c r="N57" s="19">
-        <f t="shared" si="2"/>
+      <c r="N57" s="15">
+        <f t="shared" si="4"/>
         <v>3.1466155535433877</v>
       </c>
-      <c r="P57" s="37">
-        <f t="shared" si="3"/>
+      <c r="P57" s="33">
+        <f t="shared" si="5"/>
         <v>9.3409037687992882</v>
       </c>
-      <c r="Q57" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q57" s="14">
+        <f t="shared" si="6"/>
         <v>3.2157275644555599</v>
       </c>
-      <c r="S57" s="37" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T57" s="18" t="e">
-        <f t="shared" si="6"/>
+      <c r="S57" s="33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T57" s="14" t="e">
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6758,40 +6760,40 @@
       <c r="H58">
         <v>1170</v>
       </c>
-      <c r="I58" s="17">
-        <f>$C$16/H58*10^9</f>
+      <c r="I58" s="13">
+        <f t="shared" si="0"/>
         <v>1.0596939953702142</v>
       </c>
-      <c r="J58" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I58^2+$K$16/PI()*I58^4*LN((2*$K$13^2-$K$15^2-I58^2)/($K$15^2-I58^2))</f>
+      <c r="J58" s="15">
+        <f t="shared" si="1"/>
         <v>10.859040487951846</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4436957600740294</v>
       </c>
-      <c r="M58" s="37">
-        <f t="shared" si="1"/>
+      <c r="M58" s="33">
+        <f t="shared" si="3"/>
         <v>8.8901159270071304</v>
       </c>
-      <c r="N58" s="19">
-        <f t="shared" si="2"/>
+      <c r="N58" s="15">
+        <f t="shared" si="4"/>
         <v>3.1448554699710973</v>
       </c>
-      <c r="P58" s="37">
-        <f t="shared" si="3"/>
+      <c r="P58" s="33">
+        <f t="shared" si="5"/>
         <v>9.3264915960376769</v>
       </c>
-      <c r="Q58" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q58" s="14">
+        <f t="shared" si="6"/>
         <v>3.2134858947936396</v>
       </c>
-      <c r="S58" s="37">
-        <f t="shared" si="5"/>
+      <c r="S58" s="33">
+        <f t="shared" si="7"/>
         <v>9.1052514399026716</v>
       </c>
-      <c r="T58" s="18">
-        <f t="shared" si="6"/>
+      <c r="T58" s="14">
+        <f t="shared" si="8"/>
         <v>3.1788758138534874</v>
       </c>
     </row>
@@ -6799,40 +6801,40 @@
       <c r="H59">
         <v>1180</v>
       </c>
-      <c r="I59" s="17">
-        <f>$C$16/H59*10^9</f>
+      <c r="I59" s="13">
+        <f t="shared" si="0"/>
         <v>1.0507135377823311</v>
       </c>
-      <c r="J59" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I59^2+$K$16/PI()*I59^4*LN((2*$K$13^2-$K$15^2-I59^2)/($K$15^2-I59^2))</f>
+      <c r="J59" s="15">
+        <f t="shared" si="1"/>
         <v>10.839655109487248</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4408799905674199</v>
       </c>
-      <c r="M59" s="37">
-        <f t="shared" si="1"/>
+      <c r="M59" s="33">
+        <f t="shared" si="3"/>
         <v>8.8793594951173667</v>
       </c>
-      <c r="N59" s="19">
-        <f t="shared" si="2"/>
+      <c r="N59" s="15">
+        <f t="shared" si="4"/>
         <v>3.1431448415746557</v>
       </c>
-      <c r="P59" s="37">
-        <f t="shared" si="3"/>
+      <c r="P59" s="33">
+        <f t="shared" si="5"/>
         <v>9.3125071395306804</v>
       </c>
-      <c r="Q59" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q59" s="14">
+        <f t="shared" si="6"/>
         <v>3.2113092562895091</v>
       </c>
-      <c r="S59" s="37">
-        <f t="shared" si="5"/>
+      <c r="S59" s="33">
+        <f t="shared" si="7"/>
         <v>9.07622275194643</v>
       </c>
-      <c r="T59" s="18">
-        <f t="shared" si="6"/>
+      <c r="T59" s="14">
+        <f t="shared" si="8"/>
         <v>3.174306656885316</v>
       </c>
     </row>
@@ -6840,40 +6842,40 @@
       <c r="H60">
         <v>1190</v>
       </c>
-      <c r="I60" s="17">
-        <f>$C$16/H60*10^9</f>
+      <c r="I60" s="13">
+        <f t="shared" si="0"/>
         <v>1.0418840122547484</v>
       </c>
-      <c r="J60" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I60^2+$K$16/PI()*I60^4*LN((2*$K$13^2-$K$15^2-I60^2)/($K$15^2-I60^2))</f>
+      <c r="J60" s="15">
+        <f t="shared" si="1"/>
         <v>10.820898388425876</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4381533398651487</v>
       </c>
-      <c r="M60" s="37">
-        <f t="shared" si="1"/>
+      <c r="M60" s="33">
+        <f t="shared" si="3"/>
         <v>8.8689077611409779</v>
       </c>
-      <c r="N60" s="19">
-        <f t="shared" si="2"/>
+      <c r="N60" s="15">
+        <f t="shared" si="4"/>
         <v>3.1414817779418964</v>
       </c>
-      <c r="P60" s="37">
-        <f t="shared" si="3"/>
+      <c r="P60" s="33">
+        <f t="shared" si="5"/>
         <v>9.2989328804663725</v>
       </c>
-      <c r="Q60" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q60" s="14">
+        <f t="shared" si="6"/>
         <v>3.2091950517951338</v>
       </c>
-      <c r="S60" s="37">
-        <f t="shared" si="5"/>
+      <c r="S60" s="33">
+        <f t="shared" si="7"/>
         <v>9.0549652185301088</v>
       </c>
-      <c r="T60" s="18">
-        <f t="shared" si="6"/>
+      <c r="T60" s="14">
+        <f t="shared" si="8"/>
         <v>3.170956514764923</v>
       </c>
     </row>
@@ -6881,40 +6883,40 @@
       <c r="H61">
         <v>1200</v>
       </c>
-      <c r="I61" s="17">
-        <f>$C$16/H61*10^9</f>
+      <c r="I61" s="13">
+        <f t="shared" si="0"/>
         <v>1.0332016454859587</v>
       </c>
-      <c r="J61" s="19">
-        <f>$K$14/$K$13+$K$14/$K$13^3*I61^2+$K$16/PI()*I61^4*LN((2*$K$13^2-$K$15^2-I61^2)/($K$15^2-I61^2))</f>
+      <c r="J61" s="15">
+        <f t="shared" si="1"/>
         <v>10.802740307902905</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4355116515452111</v>
       </c>
-      <c r="M61" s="37">
-        <f t="shared" si="1"/>
+      <c r="M61" s="33">
+        <f t="shared" si="3"/>
         <v>8.8587489583946812</v>
       </c>
-      <c r="N61" s="19">
-        <f t="shared" si="2"/>
+      <c r="N61" s="15">
+        <f t="shared" si="4"/>
         <v>3.139864480896378</v>
       </c>
-      <c r="P61" s="37">
-        <f t="shared" si="3"/>
+      <c r="P61" s="33">
+        <f t="shared" si="5"/>
         <v>9.2857522287759799</v>
       </c>
-      <c r="Q61" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q61" s="14">
+        <f t="shared" si="6"/>
         <v>3.2071408183576815</v>
       </c>
-      <c r="S61" s="37">
-        <f t="shared" si="5"/>
+      <c r="S61" s="33">
+        <f t="shared" si="7"/>
         <v>9.0369690212246869</v>
       </c>
-      <c r="T61" s="18">
-        <f t="shared" si="6"/>
+      <c r="T61" s="14">
+        <f t="shared" si="8"/>
         <v>3.168117583238458</v>
       </c>
     </row>
@@ -6988,7 +6990,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -7022,7 +7024,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="40"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>

--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658F24F-1663-4C45-8034-BB8609251EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14CAC4-7338-1249-BE7D-A28F6585CE46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="1" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
@@ -23,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -296,6 +291,14 @@
   </si>
   <si>
     <t>InGaAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GaAs(x)P(1-x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.750-1.502x+0.176x^2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4670,10 +4673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA66D7-AD96-A249-B847-BE3A4407F2FA}">
-  <dimension ref="C1:M8"/>
+  <dimension ref="C1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4686,7 +4689,7 @@
     <col min="8" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="21" thickBot="1">
+    <row r="1" spans="3:15" ht="21" thickBot="1">
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
@@ -4699,8 +4702,11 @@
       <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="3:13">
+      <c r="O1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15">
       <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
@@ -4726,8 +4732,11 @@
         <f>1-0.485</f>
         <v>0.51500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="3:13">
+      <c r="O2" s="5">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
       <c r="C3" s="37"/>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -4757,8 +4766,12 @@
         <f>1.351+0.643*M2+0.786*M2*M2</f>
         <v>1.89061185</v>
       </c>
-    </row>
-    <row r="4" spans="3:13">
+      <c r="O3" s="5">
+        <f>2.75-1.502*O2+0.176*O2*O2</f>
+        <v>2.3784343999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
       <c r="C4" s="37"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -4783,23 +4796,31 @@
         <f>1240/M3</f>
         <v>655.8723304310189</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" ht="21" thickBot="1">
+      <c r="O4" s="5">
+        <f>1240/O3</f>
+        <v>521.35135616941977</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" thickBot="1">
       <c r="C5" s="38"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:15">
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:15">
       <c r="K7" s="11">
         <v>2.1503450000000002</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:15">
       <c r="K8" s="11"/>
     </row>
   </sheetData>
@@ -4808,6 +4829,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14CAC4-7338-1249-BE7D-A28F6585CE46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809F8E5-5C7A-AE4A-B207-3A72A1D461B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="1" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
-    <sheet name="Eg" sheetId="2" r:id="rId2"/>
-    <sheet name="屈折率" sheetId="3" r:id="rId3"/>
-    <sheet name="SEO法" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Eg" sheetId="2" r:id="rId3"/>
+    <sheet name="屈折率" sheetId="3" r:id="rId4"/>
+    <sheet name="SEO法" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +300,22 @@
   </si>
   <si>
     <t>2.750-1.502x+0.176x^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格子整合計算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lwell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lbarriew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4446,17 +4463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E9425-04A8-AC46-B131-1E8B4D3AF7AF}">
-  <dimension ref="C1:L13"/>
+  <dimension ref="C1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="3" width="10.7109375" style="5"/>
     <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="5"/>
+    <col min="5" max="5" width="10.7109375" style="5"/>
+    <col min="6" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
@@ -4468,6 +4487,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
@@ -4487,6 +4509,9 @@
       </c>
       <c r="F2" s="2">
         <v>0.745</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>0</v>
@@ -4512,6 +4537,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4537,6 +4565,10 @@
         <f>$D$2-$D$3*F2+$D$4*F3+$D$5*F2*F3</f>
         <v>5.7565004999999996</v>
       </c>
+      <c r="G4" s="2">
+        <f>$D$2-$D$3*G2+$D$4*G3+$D$5*G2*G3</f>
+        <v>6.0582999999999991</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
@@ -4564,6 +4596,10 @@
         <f>F4-I4</f>
         <v>0.10330050000000046</v>
       </c>
+      <c r="G5" s="2">
+        <f>G4-J4</f>
+        <v>6.0582999999999991</v>
+      </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
@@ -4587,6 +4623,10 @@
         <f>-1*F5/I4</f>
         <v>-1.8272925068987561E-2</v>
       </c>
+      <c r="G6" s="3" t="e">
+        <f>-1*G5/J4</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
@@ -4661,6 +4701,73 @@
         <f>$E$9*L2*L3+$E$10*L2*(1-L3)+$E$11*(1-L2)*L3+$E$12*(1-L2)*(1-L3)</f>
         <v>5.5946467999999996</v>
       </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.7565004999999996</v>
+      </c>
+      <c r="G19" s="5">
+        <f>(F19*E19+F20*E20)/(E19+E20)</f>
+        <v>5.691736699999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5.691736699999999</v>
+      </c>
+      <c r="I19" s="5">
+        <f>(G19-I4)/I4</f>
+        <v>6.8167940281610197E-3</v>
+      </c>
+      <c r="J19" s="5">
+        <f>I19*100</f>
+        <v>0.68167940281610195</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.5945909999999994</v>
+      </c>
+      <c r="G20" s="5">
+        <f>F20*E20+F19*E19</f>
+        <v>142.29341749999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5">
+        <f>F22*E22/E22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4672,10 +4779,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA988B1-59E0-1545-887A-131A15EB62EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA66D7-AD96-A249-B847-BE3A4407F2FA}">
   <dimension ref="C1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -4833,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
   <dimension ref="B1:T61"/>
   <sheetViews>
@@ -6949,7 +7069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E4B21-547E-E24E-BC06-46090FC572D1}">
   <dimension ref="A2:K43"/>
   <sheetViews>

--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809F8E5-5C7A-AE4A-B207-3A72A1D461B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5DEEF-E0C1-D04E-B64A-2B4DF3B4FE39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="1" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Eg" sheetId="2" r:id="rId3"/>
-    <sheet name="屈折率" sheetId="3" r:id="rId4"/>
-    <sheet name="SEO法" sheetId="4" r:id="rId5"/>
+    <sheet name="Eg" sheetId="2" r:id="rId2"/>
+    <sheet name="屈折率" sheetId="3" r:id="rId3"/>
+    <sheet name="SEO法" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -318,6 +317,22 @@
     <t>L</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InGaP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AlAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Al(1-x)Ga(x)As</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -589,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4463,10 +4481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E9425-04A8-AC46-B131-1E8B4D3AF7AF}">
-  <dimension ref="C1:L24"/>
+  <dimension ref="C1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4475,10 +4493,12 @@
     <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="5"/>
     <col min="6" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="5"/>
+    <col min="8" max="16" width="10.7109375" style="5"/>
+    <col min="17" max="17" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12">
+    <row r="1" spans="3:20">
       <c r="C1" s="7"/>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -4496,8 +4516,14 @@
       <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="3:12">
+      <c r="N1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20">
       <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
@@ -4525,8 +4551,30 @@
       <c r="L2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:12">
+      <c r="M2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>5.6532499999999999</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T2" s="5">
+        <f>Q2*S2+Q3*(1-S2)</f>
+        <v>5.6546999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <v>0.41760000000000003</v>
@@ -4552,8 +4600,20 @@
       <c r="L3" s="5">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>5.6604999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <v>0.18959999999999999</v>
@@ -4583,8 +4643,12 @@
         <f>$D$2-$D$3*L2+$D$4*L3+$D$5*L2*L3</f>
         <v>5.5945909999999994</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" ht="21" thickBot="1">
+      <c r="N4" s="5">
+        <f>$D$2-$D$3*N2+$D$4*N3+$D$5*N2*N3</f>
+        <v>5.6536359999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" ht="21" thickBot="1">
       <c r="C5" s="38"/>
       <c r="D5" s="6">
         <v>1.2500000000000001E-2</v>
@@ -4614,8 +4678,11 @@
         <f>L4-I4</f>
         <v>-5.8608999999999689E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" ht="21" thickBot="1">
+      <c r="T5" s="5">
+        <v>5.6590500000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" ht="21" thickBot="1">
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
@@ -4642,7 +4709,7 @@
         <v>1.0367402533078557E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:20">
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
@@ -4650,7 +4717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:20">
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:20">
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4669,7 +4736,7 @@
         <v>5.4511700000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:20">
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4677,7 +4744,7 @@
         <v>6.0583</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:20">
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -4685,7 +4752,7 @@
         <v>5.8687500000000004</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:20">
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
@@ -4779,24 +4846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA988B1-59E0-1545-887A-131A15EB62EE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA66D7-AD96-A249-B847-BE3A4407F2FA}">
   <dimension ref="C1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4806,7 +4860,9 @@
     <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="5"/>
     <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="5"/>
+    <col min="8" max="10" width="10.7109375" style="5"/>
+    <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="21" thickBot="1">
@@ -4853,7 +4909,7 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="O2" s="5">
-        <v>0.255</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="3:15">
@@ -4888,7 +4944,7 @@
       </c>
       <c r="O3" s="5">
         <f>2.75-1.502*O2+0.176*O2*O2</f>
-        <v>2.3784343999999997</v>
+        <v>1.7723016</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -4918,7 +4974,7 @@
       </c>
       <c r="O4" s="5">
         <f>1240/O3</f>
-        <v>521.35135616941977</v>
+        <v>699.65518284246878</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="21" thickBot="1">
@@ -4953,12 +5009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
   <dimension ref="B1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5374,6 +5430,9 @@
       <c r="K20" t="s">
         <v>49</v>
       </c>
+      <c r="L20" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="M20" s="14" t="s">
         <v>59</v>
       </c>
@@ -5397,6 +5456,10 @@
         <f>SQRT(J21+1)</f>
         <v>#NUM!</v>
       </c>
+      <c r="L21" s="14" t="e">
+        <f>(1-K21)^2/(1+K21)^2</f>
+        <v>#NUM!</v>
+      </c>
       <c r="M21" s="33">
         <f>N$14/N$13+N$14/N$13^3*$I21^2+N$16/PI()*$I21^4*LN((2*N$13^2-N$15^2-$I21^2)/(N$15^2-$I21^2))</f>
         <v>9.717360074132241</v>
@@ -5438,28 +5501,32 @@
         <f t="shared" ref="K22:K61" si="2">SQRT(J22+1)</f>
         <v>#NUM!</v>
       </c>
+      <c r="L22" s="14" t="e">
+        <f t="shared" ref="L22:L61" si="3">(1-K22)^2/(1+K22)^2</f>
+        <v>#NUM!</v>
+      </c>
       <c r="M22" s="33">
-        <f t="shared" ref="M22:M61" si="3">N$14/N$13+N$14/N$13^3*$I22^2+N$16/PI()*$I22^4*LN((2*N$13^2-N$15^2-$I22^2)/(N$15^2-$I22^2))</f>
+        <f t="shared" ref="M22:M61" si="4">N$14/N$13+N$14/N$13^3*$I22^2+N$16/PI()*$I22^4*LN((2*N$13^2-N$15^2-$I22^2)/(N$15^2-$I22^2))</f>
         <v>9.6738797687547837</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" ref="N22:N61" si="4">SQRT(M22+1)</f>
+        <f t="shared" ref="N22:N61" si="5">SQRT(M22+1)</f>
         <v>3.2670904133119403</v>
       </c>
       <c r="P22" s="33">
-        <f t="shared" ref="P22:P61" si="5">Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
+        <f t="shared" ref="P22:P61" si="6">Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
         <v>10.398759713849758</v>
       </c>
       <c r="Q22" s="14">
-        <f t="shared" ref="Q22:Q61" si="6">SQRT(P22+1)</f>
+        <f t="shared" ref="Q22:Q61" si="7">SQRT(P22+1)</f>
         <v>3.3762049277035535</v>
       </c>
       <c r="S22" s="33" t="e">
-        <f t="shared" ref="S22:S61" si="7">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
+        <f t="shared" ref="S22:S61" si="8">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
         <v>#NUM!</v>
       </c>
       <c r="T22" s="14" t="e">
-        <f t="shared" ref="T22:T61" si="8">SQRT(S22+1)</f>
+        <f t="shared" ref="T22:T61" si="9">SQRT(S22+1)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5479,28 +5546,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L23" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M23" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6325773635392604</v>
       </c>
       <c r="N23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2607633099535547</v>
       </c>
       <c r="P23" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.338686744405525</v>
       </c>
       <c r="Q23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3672966522724908</v>
       </c>
       <c r="S23" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T23" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5520,28 +5591,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L24" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M24" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5932946966048505</v>
       </c>
       <c r="N24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2547341975351611</v>
       </c>
       <c r="P24" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.282051124215755</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3588764675432401</v>
       </c>
       <c r="S24" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T24" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5561,28 +5636,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L25" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M25" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5558891985677654</v>
       </c>
       <c r="N25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2489827944400944</v>
       </c>
       <c r="P25" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.228546467592144</v>
       </c>
       <c r="Q25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.350902336325567</v>
       </c>
       <c r="S25" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T25" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5602,28 +5681,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L26" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M26" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5202319057868561</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.243490697656902</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.177905898900903</v>
       </c>
       <c r="Q26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3433375388825017</v>
       </c>
       <c r="S26" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T26" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5643,28 +5726,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L27" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M27" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4862057872349475</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2382411564358433</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.129895210961985</v>
       </c>
       <c r="Q27" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.336149758473379</v>
       </c>
       <c r="S27" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T27" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5684,28 +5771,32 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="L28" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="M28" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4537043259029172</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2332188799867723</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.08430750751344</v>
       </c>
       <c r="Q28" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3293103651527352</v>
       </c>
       <c r="S28" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T28" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5725,28 +5816,32 @@
         <f t="shared" si="2"/>
         <v>3.6299107578378438</v>
       </c>
+      <c r="L29" s="14">
+        <f t="shared" si="3"/>
+        <v>0.3226537991523693</v>
+      </c>
       <c r="M29" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4226303085204979</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2284098730676218</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.040958948044389</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3227938467567304</v>
       </c>
       <c r="S29" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T29" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5766,28 +5861,32 @@
         <f t="shared" si="2"/>
         <v>3.6082637131784132</v>
       </c>
+      <c r="L30" s="14">
+        <f t="shared" si="3"/>
+        <v>0.32035267188313749</v>
+      </c>
       <c r="M30" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3928947870910626</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2238012946040988</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9996853252198825</v>
       </c>
       <c r="Q30" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3165773510080965</v>
       </c>
       <c r="S30" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T30" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5807,28 +5906,32 @@
         <f t="shared" si="2"/>
         <v>3.5931146297516281</v>
       </c>
+      <c r="L31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31873434446683668</v>
+      </c>
       <c r="M31" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3644161831466892</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2193813354659757</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9603392806288547</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3106403127837454</v>
       </c>
       <c r="S31" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T31" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5848,28 +5951,32 @@
         <f t="shared" si="2"/>
         <v>3.5807953633715357</v>
       </c>
+      <c r="L32" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31741347332728387</v>
+      </c>
       <c r="M32" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3371195113389902</v>
       </c>
       <c r="N32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2151391122841</v>
       </c>
       <c r="P32" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9227880165795614</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3049641475482847</v>
       </c>
       <c r="S32" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T32" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5889,28 +5996,32 @@
         <f t="shared" si="2"/>
         <v>3.5701558080616795</v>
       </c>
+      <c r="L33" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31626919332172831</v>
+      </c>
       <c r="M33" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3109357034231213</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2110645747825006</v>
       </c>
       <c r="P33" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8869113981365047</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2995319968347792</v>
       </c>
       <c r="S33" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T33" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5930,28 +6041,32 @@
         <f t="shared" si="2"/>
         <v>3.5606715093500103</v>
       </c>
+      <c r="L34" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31524641310351026</v>
+      </c>
       <c r="M34" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2858010171789083</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2071484245633082</v>
       </c>
       <c r="P34" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8526003656081098</v>
       </c>
       <c r="Q34" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2943285151314385</v>
       </c>
       <c r="S34" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T34" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5971,28 +6086,32 @@
         <f t="shared" si="2"/>
         <v>3.552053275958686</v>
       </c>
+      <c r="L35" s="14">
+        <f t="shared" si="3"/>
+        <v>0.3143147777278959</v>
+      </c>
       <c r="M35" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2616565175723302</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.20338204364892</v>
       </c>
       <c r="P35" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8197555965400678</v>
       </c>
       <c r="Q35" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2893396900502792</v>
       </c>
       <c r="S35" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T35" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6012,28 +6131,32 @@
         <f t="shared" si="2"/>
         <v>3.5441216177768347</v>
       </c>
+      <c r="L36" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31345546358139598</v>
+      </c>
       <c r="M36" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2384476196616028</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.199757431378448</v>
       </c>
       <c r="P36" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7882863701149745</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2845526895020232</v>
       </c>
       <c r="S36" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T36" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6053,28 +6176,32 @@
         <f t="shared" si="2"/>
         <v>3.536755675296718</v>
       </c>
+      <c r="L37" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31265580675059484</v>
+      </c>
       <c r="M37" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2161236845200332</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1962671484905689</v>
       </c>
       <c r="P37" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7581095971647276</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2799557309763689</v>
       </c>
       <c r="S37" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T37" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6094,28 +6221,32 @@
         <f t="shared" si="2"/>
         <v>3.5298690677001594</v>
       </c>
+      <c r="L38" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31190676299321624</v>
+      </c>
       <c r="M38" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1946376608781222</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1929042674151886</v>
       </c>
       <c r="P38" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7291489867653222</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2755379690617725</v>
       </c>
       <c r="S38" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T38" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6135,28 +6266,32 @@
         <f t="shared" si="2"/>
         <v>3.5233971865358451</v>
       </c>
+      <c r="L39" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31120157182331121</v>
+      </c>
       <c r="M39" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1739457663513377</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1896623279512424</v>
       </c>
       <c r="P39" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7013343262971112</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2712893981268474</v>
       </c>
       <c r="S39" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T39" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6176,28 +6311,32 @@
         <f t="shared" si="2"/>
         <v>3.5172899543167673</v>
       </c>
+      <c r="L40" s="14">
+        <f t="shared" si="3"/>
+        <v>0.31053499550692687</v>
+      </c>
       <c r="M40" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1540072030734123</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1865352976349426</v>
       </c>
       <c r="P40" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6746008564046591</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2672007676916119</v>
       </c>
       <c r="S40" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T40" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6217,28 +6356,32 @@
         <f t="shared" si="2"/>
         <v>3.5115074312644863</v>
       </c>
+      <c r="L41" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30990285763762926</v>
+      </c>
       <c r="M41" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1347839033400025</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1835175362073951</v>
       </c>
       <c r="P41" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6488887258266534</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2632635084875776</v>
       </c>
       <c r="S41" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T41" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6258,28 +6401,32 @@
         <f t="shared" si="2"/>
         <v>3.5060170121668168</v>
       </c>
+      <c r="L42" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30930174892325463</v>
+      </c>
       <c r="M42" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1162403015174878</v>
       </c>
       <c r="N42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1806037636771869</v>
       </c>
       <c r="P42" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6241425138388372</v>
       </c>
       <c r="Q42" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2594696675745944</v>
       </c>
       <c r="S42" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T42" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6299,28 +6446,32 @@
         <f t="shared" si="2"/>
         <v>3.5007915618345975</v>
       </c>
+      <c r="L43" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30872883163751014</v>
+      </c>
       <c r="M43" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0983431290125729</v>
       </c>
       <c r="N43" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1777890315457653</v>
       </c>
       <c r="P43" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6003108102449897</v>
       </c>
       <c r="Q43" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2558118511739877</v>
       </c>
       <c r="S43" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T43" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6340,28 +6491,32 @@
         <f t="shared" si="2"/>
         <v>3.495808130728832</v>
       </c>
+      <c r="L44" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30818170503150849</v>
+      </c>
       <c r="M44" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0810612295503947</v>
       </c>
       <c r="N44" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1750686968238018</v>
       </c>
       <c r="P44" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5773458445974562</v>
       </c>
       <c r="Q44" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2522831741097602</v>
       </c>
       <c r="S44" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T44" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6381,28 +6536,32 @@
         <f t="shared" si="2"/>
         <v>3.4910470434195555</v>
       </c>
+      <c r="L45" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30765830989906007</v>
+      </c>
       <c r="M45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0643653923886465</v>
       </c>
       <c r="N45" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1724383985175577</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5552031577307801</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2488772149360741</v>
       </c>
       <c r="S45" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T45" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6422,28 +6581,32 @@
         <f t="shared" si="2"/>
         <v>3.4864912347400407</v>
       </c>
+      <c r="L46" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30715685913868301</v>
+      </c>
       <c r="M46" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0482282014153732</v>
       </c>
       <c r="N46" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1698940363071086</v>
       </c>
       <c r="P46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5338413098249557</v>
       </c>
       <c r="Q46" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2455879759798463</v>
       </c>
       <c r="S46" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T46" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6463,28 +6626,32 @@
         <f t="shared" si="2"/>
         <v>3.4821257553134002</v>
       </c>
+      <c r="L47" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30667578608020524</v>
+      </c>
       <c r="M47" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.032623898349323</v>
       </c>
       <c r="N47" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1674317511746519</v>
       </c>
       <c r="P47" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5132216201366315</v>
       </c>
       <c r="Q47" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.242409847649836</v>
       </c>
       <c r="S47" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T47" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6504,28 +6671,32 @@
         <f t="shared" si="2"/>
         <v>3.4779373958561179</v>
       </c>
+      <c r="L48" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30621370526030411</v>
+      </c>
       <c r="M48" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0175282584922645</v>
       </c>
       <c r="N48" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1650479077720552</v>
       </c>
       <c r="P48" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4933079342909039</v>
       </c>
       <c r="Q48" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2393375764638832</v>
       </c>
       <c r="S48" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T48" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6545,28 +6716,32 @@
         <f t="shared" si="2"/>
         <v>3.4739143966564621</v>
       </c>
+      <c r="L49" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30576938211832783</v>
+      </c>
       <c r="M49" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0029184776793176</v>
       </c>
       <c r="N49" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1627390783432197</v>
       </c>
       <c r="P49" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4740664156473553</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2363662363285393</v>
       </c>
       <c r="S49" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T49" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6586,28 +6761,32 @@
         <f t="shared" si="2"/>
         <v>3.4700462193577297</v>
       </c>
+      <c r="L50" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30534170921198761</v>
+      </c>
       <c r="M50" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9887730692417218</v>
       </c>
       <c r="N50" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1605020280394887</v>
       </c>
       <c r="P50" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4554653577679009</v>
       </c>
       <c r="Q50" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.233491202673652</v>
       </c>
       <c r="S50" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T50" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6627,28 +6806,32 @@
         <f t="shared" si="2"/>
         <v>3.4663233651365162</v>
       </c>
+      <c r="L51" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30492968728399833</v>
+      </c>
       <c r="M51" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9750717699411684</v>
       </c>
       <c r="N51" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1583337014858275</v>
       </c>
       <c r="P51" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4374750154416258</v>
       </c>
       <c r="Q51" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2307081291013624</v>
       </c>
       <c r="S51" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T51" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6668,28 +6851,32 @@
         <f t="shared" si="2"/>
         <v>3.4627372279887259</v>
       </c>
+      <c r="L52" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30453240999636094</v>
+      </c>
       <c r="M52" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9617954539593274</v>
       </c>
       <c r="N52" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1562312104722823</v>
       </c>
       <c r="P52" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.420067452079131</v>
       </c>
       <c r="Q52" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.228012926256512</v>
       </c>
       <c r="S52" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T52" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6709,28 +6896,32 @@
         <f t="shared" si="2"/>
         <v>3.4592799749721674</v>
       </c>
+      <c r="L53" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30414905147832438</v>
+      </c>
       <c r="M53" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9489260541341071</v>
       </c>
       <c r="N53" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1541918226598247</v>
       </c>
       <c r="P53" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4032164015891038</v>
       </c>
       <c r="Q53" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.225401742665416</v>
       </c>
       <c r="S53" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T53" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6750,28 +6941,32 @@
         <f t="shared" si="2"/>
         <v>3.4559444474237462</v>
       </c>
+      <c r="L54" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30377885606174404</v>
+      </c>
       <c r="M54" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9364464897273361</v>
       </c>
       <c r="N54" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1522129512022716</v>
       </c>
       <c r="P54" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3868971431030523</v>
       </c>
       <c r="Q54" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.222870947323683</v>
       </c>
       <c r="S54" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T54" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6791,28 +6986,32 @@
         <f t="shared" si="2"/>
         <v>3.4527240786961384</v>
       </c>
+      <c r="L55" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30342112973775043</v>
+      </c>
       <c r="M55" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9243406000899448</v>
       </c>
       <c r="N55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1502921451970045</v>
       </c>
       <c r="P55" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3710863871284804</v>
       </c>
       <c r="Q55" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2204171138423172</v>
       </c>
       <c r="S55" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T55" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6832,28 +7031,32 @@
         <f t="shared" si="2"/>
         <v>3.4496128250509432</v>
       </c>
+      <c r="L56" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30307523298315697</v>
+      </c>
       <c r="M56" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9125930836612905</v>
       </c>
       <c r="N56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1484270808867865</v>
       </c>
       <c r="P56" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3557621718932324</v>
       </c>
       <c r="Q56" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2180370059856727</v>
       </c>
       <c r="S56" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T56" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6873,28 +7076,32 @@
         <f t="shared" si="2"/>
         <v>3.4466051071380304</v>
       </c>
+      <c r="L57" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30274057468811638</v>
+      </c>
       <c r="M57" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9011894418011615</v>
       </c>
       <c r="N57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1466155535433877</v>
       </c>
       <c r="P57" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3409037687992882</v>
       </c>
       <c r="Q57" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2157275644555599</v>
       </c>
       <c r="S57" s="33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="T57" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6914,28 +7121,32 @@
         <f t="shared" si="2"/>
         <v>3.4436957600740294</v>
       </c>
+      <c r="L58" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30241660697761713</v>
+      </c>
       <c r="M58" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8901159270071304</v>
       </c>
       <c r="N58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1448554699710973</v>
       </c>
       <c r="P58" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3264915960376769</v>
       </c>
       <c r="Q58" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2134858947936396</v>
       </c>
       <c r="S58" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.1052514399026716</v>
       </c>
       <c r="T58" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1788758138534874</v>
       </c>
     </row>
@@ -6955,28 +7166,32 @@
         <f t="shared" si="2"/>
         <v>3.4408799905674199</v>
       </c>
+      <c r="L59" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30210282076490047</v>
+      </c>
       <c r="M59" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8793594951173667</v>
       </c>
       <c r="N59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1431448415746557</v>
       </c>
       <c r="P59" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3125071395306804</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2113092562895091</v>
       </c>
       <c r="S59" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.07622275194643</v>
       </c>
       <c r="T59" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.174306656885316</v>
       </c>
     </row>
@@ -6996,28 +7211,32 @@
         <f t="shared" si="2"/>
         <v>3.4381533398651487</v>
       </c>
+      <c r="L60" s="14">
+        <f t="shared" si="3"/>
+        <v>0.3017987419091252</v>
+      </c>
       <c r="M60" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8689077611409779</v>
       </c>
       <c r="N60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1414817779418964</v>
       </c>
       <c r="P60" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2989328804663725</v>
       </c>
       <c r="Q60" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2091950517951338</v>
       </c>
       <c r="S60" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0549652185301088</v>
       </c>
       <c r="T60" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.170956514764923</v>
       </c>
     </row>
@@ -7037,28 +7256,32 @@
         <f t="shared" si="2"/>
         <v>3.4355116515452111</v>
       </c>
+      <c r="L61" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30150392787569896</v>
+      </c>
       <c r="M61" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8587489583946812</v>
       </c>
       <c r="N61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.139864480896378</v>
       </c>
       <c r="P61" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2857522287759799</v>
       </c>
       <c r="Q61" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2071408183576815</v>
       </c>
       <c r="S61" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0369690212246869</v>
       </c>
       <c r="T61" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.168117583238458</v>
       </c>
     </row>
@@ -7069,7 +7292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E4B21-547E-E24E-BC06-46090FC572D1}">
   <dimension ref="A2:K43"/>
   <sheetViews>

--- a/修論/本文/その他/ぺガードの法則.xlsx
+++ b/修論/本文/その他/ぺガードの法則.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5DEEF-E0C1-D04E-B64A-2B4DF3B4FE39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787B1E3-28C2-1142-9618-9815CCE1ECB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="1" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="4" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
     <sheet name="Eg" sheetId="2" r:id="rId2"/>
     <sheet name="屈折率" sheetId="3" r:id="rId3"/>
     <sheet name="SEO法" sheetId="4" r:id="rId4"/>
+    <sheet name="tau" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -331,6 +332,26 @@
   </si>
   <si>
     <t>Al(1-x)Ga(x)As</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_GaAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3QW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10QW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tau_p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -716,6 +737,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4483,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E9425-04A8-AC46-B131-1E8B4D3AF7AF}">
   <dimension ref="C1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4545,7 @@
       </c>
     </row>
     <row r="2" spans="3:20">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5">
@@ -4575,7 +4596,7 @@
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="5">
         <v>0.41760000000000003</v>
       </c>
@@ -4609,12 +4630,12 @@
       <c r="P3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="37">
         <v>5.6604999999999999</v>
       </c>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="37"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5">
         <v>0.18959999999999999</v>
       </c>
@@ -4649,7 +4670,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" ht="21" thickBot="1">
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -4849,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA66D7-AD96-A249-B847-BE3A4407F2FA}">
   <dimension ref="C1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -4883,7 +4904,7 @@
       </c>
     </row>
     <row r="2" spans="3:15">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4913,7 +4934,7 @@
       </c>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
@@ -4948,7 +4969,7 @@
       </c>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="37"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -4978,7 +4999,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="21" thickBot="1">
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
@@ -5013,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
   <dimension ref="B1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7288,6 +7309,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7355,7 +7377,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -7389,7 +7411,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -8426,4 +8448,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C205BD1-56DB-C741-BF6B-D300D080FC5E}">
+  <dimension ref="D2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="4:7">
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7">
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7">
+      <c r="D4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="23">
+        <v>299792458</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>11.8</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>